--- a/_content/training/2020/trainingsuren-2020-2021.xlsx
+++ b/_content/training/2020/trainingsuren-2020-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d91054ca25cdb7b6/Basketbal/Basket Lummen/Trainingsuren/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\basket\lummen\_content\training\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25136EBC-D07D-40A5-AB94-12E57B7CD61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBDBE8FD-FCC8-446C-BABB-B1C2BCDCBB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26595" yWindow="-120" windowWidth="26715" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maandag" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Donderdag" sheetId="4" r:id="rId4"/>
     <sheet name="Vrijdag" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="81">
   <si>
     <t>Maandag</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Boekt</t>
   </si>
   <si>
-    <t>Herk??</t>
-  </si>
-  <si>
     <t>9:00 - 09:30</t>
   </si>
   <si>
@@ -225,18 +222,12 @@
     <t>U14 Niv 2</t>
   </si>
   <si>
-    <t>Spec U14A+B</t>
-  </si>
-  <si>
     <t>U12 B</t>
   </si>
   <si>
     <t>U12C</t>
   </si>
   <si>
-    <t>Onder voorbehoud</t>
-  </si>
-  <si>
     <t>Om de 2 weken vrij</t>
   </si>
   <si>
@@ -244,13 +235,55 @@
   </si>
   <si>
     <t>U10B/C</t>
+  </si>
+  <si>
+    <t>Lummen</t>
+  </si>
+  <si>
+    <t>Samenwerking Beringen</t>
+  </si>
+  <si>
+    <t>Lizards Hasselt</t>
+  </si>
+  <si>
+    <t>U16A</t>
+  </si>
+  <si>
+    <t>U16B</t>
+  </si>
+  <si>
+    <t>Hasselt Sportschuur</t>
+  </si>
+  <si>
+    <t>Hasselt VJC 2</t>
+  </si>
+  <si>
+    <t>Hasselt VJC 1</t>
+  </si>
+  <si>
+    <t>Liz U14 B</t>
+  </si>
+  <si>
+    <t>Beringen College 1</t>
+  </si>
+  <si>
+    <t>Beringen College 2</t>
+  </si>
+  <si>
+    <t>Beringen College 3</t>
+  </si>
+  <si>
+    <t>Vrij</t>
+  </si>
+  <si>
+    <t>U18A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +336,19 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -349,18 +395,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -479,11 +525,299 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -542,9 +876,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -566,50 +897,168 @@
     <xf numFmtId="20" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="66">
     <dxf>
       <font>
         <b val="0"/>
@@ -629,12 +1078,189 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFDDDDDD"/>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -958,12 +1584,189 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFDDDDDD"/>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -1287,12 +2090,230 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFDDDDDD"/>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -1616,12 +2637,189 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFDDDDDD"/>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -1945,7 +3143,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFDDDDDD"/>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1984,12 +3182,13 @@
         <sz val="8"/>
         <color theme="1"/>
         <name val="Verdana"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFDDDDDD"/>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2068,6 +3267,7 @@
         <sz val="8"/>
         <color theme="1"/>
         <name val="Verdana"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2078,7 +3278,45 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -2117,6 +3355,46 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
@@ -2167,6 +3445,94 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -2278,80 +3644,101 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel13" displayName="Tabel13" ref="A2:G29" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A2:G29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Maandag" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SH1" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SH2" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SH3" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="OHVM" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Boekt" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Herk??" dataDxfId="36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel13" displayName="Tabel13" ref="A2:K29" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+  <autoFilter ref="A2:K29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Maandag" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SH1" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SH2" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SH3" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="OHVM" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Boekt" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{A4684971-8917-4CDF-AC18-80810216867D}" name="Beringen College 1" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{0E733E82-728C-47DF-A4DB-45E7DDE0C4D5}" name="Beringen College 2" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{A6558342-2CA3-4EB1-A87B-C58FF6480EBB}" name="Hasselt VJC 1" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{07DB8EF7-6D11-4C28-8CD2-85083342BBE2}" name="Hasselt VJC 2" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{EBFCBE8E-A73D-41FF-82CA-A72870FD5EF3}" name="Hasselt Sportschuur" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel1411" displayName="Tabel1411" ref="A1:G28" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:G28" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Dinsdag" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SH1" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="SH2" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="SH3" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="OHVM" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Boekt" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Herk??" dataDxfId="27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel1411" displayName="Tabel1411" ref="A2:K29" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="A2:K29" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Dinsdag" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SH1" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="SH2" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="SH3" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="OHVM" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Boekt" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Beringen College 1" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{771E9C08-B39D-4CCE-86A8-C8A05A30AB2A}" name="Beringen College 2" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{E54706BE-1470-452F-9C4B-56B004387BE6}" name="Hasselt VJC 1" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{27EEDCAA-9E55-4E86-B7D5-771FE82A069B}" name="Hasselt VJC 2" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{D420A5D5-81BD-4E15-A794-6FE17EAF5275}" name="Hasselt Sportschuur" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel1615" displayName="Tabel1615" ref="A1:G28" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:G28" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Woensdag" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SH1" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="SH2" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="SH3" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="OHVM" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Boekt" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Herk??" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel1615" displayName="Tabel1615" ref="A2:L29" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A2:L29" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Woensdag" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SH1" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="SH2" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="SH3" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="OHVM" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Boekt" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Beringen College 1" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{9370C83E-8A13-4576-AFA3-AC42D3D51200}" name="Beringen College 2" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{8685BCCA-7A9E-49C4-9975-E95EBF99AC31}" name="Beringen College 3" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{CD2CD09C-0371-4162-A0DC-4B786C80B42F}" name="Hasselt VJC 1" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{657C5E7A-3C18-432E-A03A-FE9AFEC70CB0}" name="Hasselt VJC 2" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{CA5E9531-85B5-4EFD-A2E7-238E997D1A8F}" name="Hasselt Sportschuur" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel1816" displayName="Tabel1816" ref="A1:G28" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:G28" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Donderdag" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="SH1" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="SH2" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="SH3" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="OHVM" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Boekt" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Herk??" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel1816" displayName="Tabel1816" ref="A2:K29" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A2:K29" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Donderdag" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="SH1" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="SH2" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="SH3" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="OHVM" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Boekt" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Beringen College 1" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{CA161D18-4853-4DBA-8D8B-15780F30A0CE}" name="Beringen College 2" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{ECEA601E-37E8-466F-9F66-2A696D4D9212}" name="Hasselt VJC 1" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{63015DF5-A770-4171-9E9F-BC4AC0C00D36}" name="Hasselt VJC 2" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{73661A73-F7D7-4A16-81B8-8331636B1296}" name="Hasselt Sportschuur" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabel11017" displayName="Tabel11017" ref="A1:G28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G28" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Vrijdag" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="SH1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="SH2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="SH3" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="OHVM" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Boekt" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Herk??" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabel11017" displayName="Tabel11017" ref="A2:K29" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A2:K29" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Vrijdag" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="SH1" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="SH2" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="SH3" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="OHVM" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Boekt" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Beringen College 1" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{85384D6F-E295-4C78-975E-2CCE27AE2668}" name="Beringen College 2" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{377D16AD-9F80-44B2-A3FA-BE159912E459}" name="Hasselt VJC 1" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{9296D47B-56BC-4013-93D1-780E66450EA9}" name="Hasselt VJC 2" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{923488D8-9349-477A-B70C-A7B572E14ED5}" name="Hasselt Sportschuur" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2644,403 +4031,568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="2" max="6" width="10" customWidth="1"/>
+    <col min="7" max="11" width="12.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="2" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="36"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B4" s="35"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="36"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="35"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="36"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="35"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="36"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="35"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="36"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="48"/>
+    </row>
+    <row r="8" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="35"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="36"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="35"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="36"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="48"/>
+    </row>
+    <row r="10" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B10" s="35"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="36"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B11" s="35"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B12" s="35"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="36"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="35"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="36"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="48"/>
+    </row>
+    <row r="14" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B14" s="35"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="36"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="48"/>
+    </row>
+    <row r="15" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B15" s="35"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="36"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="48"/>
+    </row>
+    <row r="16" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B16" s="35"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="36"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="35"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="48"/>
+    </row>
+    <row r="18" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B18" s="35"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="36"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="48"/>
+    </row>
+    <row r="19" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="38"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="48"/>
+    </row>
+    <row r="20" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="B20" s="37"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="38"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="48"/>
+    </row>
+    <row r="21" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="B21" s="37"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="60"/>
+    </row>
+    <row r="22" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="60"/>
+    </row>
+    <row r="23" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="60"/>
+    </row>
+    <row r="24" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="H24" s="58"/>
+      <c r="I24" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="J24" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="60"/>
+    </row>
+    <row r="25" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="41"/>
+      <c r="G25" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="58"/>
+      <c r="I25" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="60"/>
+    </row>
+    <row r="26" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="B26" s="37"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="41"/>
+      <c r="G26" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="58"/>
+      <c r="I26" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="59"/>
+      <c r="K26" s="60"/>
+    </row>
+    <row r="27" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="B27" s="37"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="41"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="59"/>
+      <c r="K27" s="60"/>
+    </row>
+    <row r="28" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="B28" s="37"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="41"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="59"/>
+      <c r="K28" s="60"/>
+    </row>
+    <row r="29" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>38</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="66"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3052,394 +4604,544 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.41796875" customWidth="1"/>
+    <col min="7" max="11" width="12.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="2" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="46"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="35"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="35"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="35"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="35"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="48"/>
+    </row>
+    <row r="8" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="35"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="35"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="48"/>
+    </row>
+    <row r="10" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="35"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="35"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="35"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="67"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="68"/>
+    </row>
+    <row r="14" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="68"/>
+    </row>
+    <row r="15" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="67"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="68"/>
+    </row>
+    <row r="16" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="67"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="68"/>
+    </row>
+    <row r="17" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="67"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="68"/>
+    </row>
+    <row r="18" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="68"/>
+    </row>
+    <row r="19" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="68"/>
+    </row>
+    <row r="20" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>25</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="9"/>
       <c r="C21" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G21" s="67"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="67"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>32</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>33</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="67"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="68"/>
+    </row>
+    <row r="24" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="28" t="s">
         <v>33</v>
       </c>
+      <c r="B24" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="9"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="68"/>
+    </row>
+    <row r="25" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="67"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="68"/>
+    </row>
+    <row r="26" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>45</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="67"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="68"/>
+    </row>
+    <row r="27" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>45</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="67"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="68"/>
+    </row>
+    <row r="28" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="E28" s="15"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="68"/>
+    </row>
+    <row r="29" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="69"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3451,401 +5153,604 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="7" max="12" width="12.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="52"/>
+    </row>
+    <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="46"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="47"/>
+    </row>
+    <row r="4" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="35"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="35"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="48"/>
+    </row>
+    <row r="6" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="35"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="48"/>
+    </row>
+    <row r="7" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="35"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="48"/>
+    </row>
+    <row r="8" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="35"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="48"/>
+    </row>
+    <row r="9" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="35"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="35"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="48"/>
+    </row>
+    <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="35"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="48"/>
+    </row>
+    <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="35"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="48"/>
+    </row>
+    <row r="13" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="35"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="48"/>
+    </row>
+    <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="35"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="48"/>
+    </row>
+    <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="35"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="48"/>
+    </row>
+    <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="48"/>
+    </row>
+    <row r="17" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="35"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="48"/>
+    </row>
+    <row r="18" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>65</v>
-      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="48"/>
+    </row>
+    <row r="19" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="35"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="48"/>
+    </row>
+    <row r="20" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="48"/>
+    </row>
+    <row r="21" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="48"/>
+    </row>
+    <row r="22" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B22" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="G22" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="48"/>
+    </row>
+    <row r="23" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="23" t="s">
+      <c r="G23" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="48"/>
+    </row>
+    <row r="24" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="23" t="s">
+      <c r="C24" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="48"/>
+    </row>
+    <row r="25" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="29" t="s">
+      <c r="C25" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>30</v>
+      <c r="D25" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="48"/>
+    </row>
+    <row r="26" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="48"/>
+    </row>
+    <row r="27" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="35"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="48"/>
+    </row>
+    <row r="28" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="48"/>
+    </row>
+    <row r="29" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
+    </row>
+    <row r="30" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3857,416 +5762,560 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="101" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A10" zoomScale="101" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.41796875" customWidth="1"/>
+    <col min="7" max="11" width="12.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="2" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="46"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="35"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="35"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="35"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="35"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="48"/>
+    </row>
+    <row r="8" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="35"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="35"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="48"/>
+    </row>
+    <row r="10" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="35"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="35"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="35"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="35"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="48"/>
+    </row>
+    <row r="14" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="35"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="48"/>
+    </row>
+    <row r="15" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="35"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="48"/>
+    </row>
+    <row r="16" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="35"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="12"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="35"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="48"/>
+    </row>
+    <row r="18" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="48"/>
+    </row>
+    <row r="19" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="48"/>
+    </row>
+    <row r="20" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="G20" s="67"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="48"/>
+    </row>
+    <row r="21" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="67"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="48"/>
+    </row>
+    <row r="22" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="25" t="s">
+      <c r="B22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="25" t="s">
+      <c r="D22" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="67"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="48"/>
+    </row>
+    <row r="23" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="D23" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="48"/>
+    </row>
+    <row r="24" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="48"/>
+    </row>
+    <row r="25" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B25" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="48"/>
+    </row>
+    <row r="26" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="48"/>
+    </row>
+    <row r="27" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="D27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="31" t="s">
+      <c r="E27" s="21"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="48"/>
+    </row>
+    <row r="28" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="D28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="31" t="s">
+      <c r="E28" s="21"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="48"/>
+    </row>
+    <row r="29" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="D29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4278,413 +6327,594 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.26171875" customWidth="1"/>
+    <col min="7" max="12" width="12.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="79"/>
+    </row>
+    <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="46"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="47"/>
+    </row>
+    <row r="4" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="35"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="35"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="48"/>
+    </row>
+    <row r="6" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="35"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="48"/>
+    </row>
+    <row r="7" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="35"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="48"/>
+    </row>
+    <row r="8" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="35"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="48"/>
+    </row>
+    <row r="9" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="35"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="35"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="48"/>
+    </row>
+    <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="35"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="48"/>
+    </row>
+    <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="35"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="48"/>
+    </row>
+    <row r="13" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="35"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="48"/>
+    </row>
+    <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="24"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="48"/>
+    </row>
+    <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="35"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="48"/>
+    </row>
+    <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="B16" s="23"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="35"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="48"/>
+    </row>
+    <row r="17" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="48"/>
+    </row>
+    <row r="18" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="48"/>
+    </row>
+    <row r="19" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>47</v>
+      <c r="B19" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="35"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="48"/>
+    </row>
+    <row r="20" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="68"/>
+    </row>
+    <row r="21" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="68"/>
+    </row>
+    <row r="22" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="B24" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="B25" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="68"/>
+    </row>
+    <row r="26" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="B26" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="48"/>
+    </row>
+    <row r="27" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="B27" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="48"/>
+    </row>
+    <row r="28" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="B28" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="48"/>
+    </row>
+    <row r="29" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B29" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
+    </row>
+    <row r="30" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
